--- a/Unemployment rate 2020.xlsx
+++ b/Unemployment rate 2020.xlsx
@@ -16,13 +16,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Unemployment rate</t>
+  </si>
+  <si>
     <t>National</t>
-  </si>
-  <si>
-    <t>Unemployment rate</t>
-  </si>
-  <si>
-    <t>United States</t>
   </si>
   <si>
     <t>South Dakota</t>
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="1"/>
